--- a/Data/Export/Common/技能效果配置.xlsx
+++ b/Data/Export/Common/技能效果配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9CD4FC-205B-4F86-AC32-447FEFF5120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E8A5F3-B6EB-413C-847B-8C488C0F159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="1932" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffects" sheetId="36" r:id="rId1"/>
@@ -628,39 +628,39 @@
   <dimension ref="A1:AE69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.25" style="2" customWidth="1"/>
-    <col min="25" max="25" width="70.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.21875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="70.44140625" style="2" customWidth="1"/>
     <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -719,7 +719,7 @@
       <c r="AD1" s="8"/>
       <c r="AE1" s="6"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
     </row>
-    <row r="4" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G5" s="4">
         <v>400</v>
@@ -899,7 +899,7 @@
       <c r="AB5" s="4"/>
       <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -917,7 +917,7 @@
       <c r="AB6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -934,7 +934,7 @@
       <c r="AB7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -951,7 +951,7 @@
       <c r="AB8" s="4"/>
       <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -968,7 +968,7 @@
       <c r="AB9" s="4"/>
       <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -985,7 +985,7 @@
       <c r="AB10" s="4"/>
       <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1002,7 +1002,7 @@
       <c r="AB11" s="4"/>
       <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1019,7 +1019,7 @@
       <c r="AB12" s="4"/>
       <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1036,7 +1036,7 @@
       <c r="AB13" s="4"/>
       <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1053,7 +1053,7 @@
       <c r="AB14" s="4"/>
       <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1070,7 +1070,7 @@
       <c r="AB15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1087,7 +1087,7 @@
       <c r="AB16" s="4"/>
       <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1104,7 +1104,7 @@
       <c r="AB17" s="4"/>
       <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1121,7 +1121,7 @@
       <c r="AB18" s="4"/>
       <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1136,7 +1136,7 @@
       <c r="AB19" s="4"/>
       <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1151,7 +1151,7 @@
       <c r="AB20" s="4"/>
       <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1166,7 +1166,7 @@
       <c r="AB21" s="4"/>
       <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1181,7 +1181,7 @@
       <c r="AB22" s="4"/>
       <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1196,7 +1196,7 @@
       <c r="AB23" s="4"/>
       <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1211,7 +1211,7 @@
       <c r="AB24" s="4"/>
       <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1226,7 +1226,7 @@
       <c r="AB25" s="4"/>
       <c r="AD25" s="4"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1243,7 +1243,7 @@
       <c r="AB26" s="4"/>
       <c r="AD26" s="4"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1261,7 +1261,7 @@
       <c r="AB27" s="4"/>
       <c r="AD27" s="4"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1278,7 +1278,7 @@
       <c r="AB28" s="4"/>
       <c r="AD28" s="4"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1295,7 +1295,7 @@
       <c r="AB29" s="4"/>
       <c r="AD29" s="4"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1312,7 +1312,7 @@
       <c r="AB30" s="4"/>
       <c r="AD30" s="4"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1329,7 +1329,7 @@
       <c r="AB31" s="4"/>
       <c r="AD31" s="4"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1346,7 +1346,7 @@
       <c r="AB32" s="4"/>
       <c r="AD32" s="4"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1363,7 +1363,7 @@
       <c r="AB33" s="4"/>
       <c r="AD33" s="4"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1380,7 +1380,7 @@
       <c r="AB34" s="4"/>
       <c r="AD34" s="4"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1397,7 +1397,7 @@
       <c r="AB35" s="4"/>
       <c r="AD35" s="4"/>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1414,7 +1414,7 @@
       <c r="AB36" s="4"/>
       <c r="AD36" s="4"/>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1431,7 +1431,7 @@
       <c r="AB37" s="4"/>
       <c r="AD37" s="4"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1448,7 +1448,7 @@
       <c r="AB38" s="4"/>
       <c r="AD38" s="4"/>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1465,7 +1465,7 @@
       <c r="AB39" s="4"/>
       <c r="AD39" s="4"/>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1480,7 +1480,7 @@
       <c r="AB40" s="4"/>
       <c r="AD40" s="4"/>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1495,7 +1495,7 @@
       <c r="AB41" s="4"/>
       <c r="AD41" s="4"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1510,7 +1510,7 @@
       <c r="AB42" s="4"/>
       <c r="AD42" s="4"/>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1525,7 +1525,7 @@
       <c r="AB43" s="4"/>
       <c r="AD43" s="4"/>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1540,7 +1540,7 @@
       <c r="AB44" s="4"/>
       <c r="AD44" s="4"/>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1549,7 +1549,7 @@
       <c r="AB45" s="4"/>
       <c r="AD45" s="4"/>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1557,117 +1557,117 @@
       <c r="AB46" s="4"/>
       <c r="AD46" s="4"/>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
     </row>
   </sheetData>
